--- a/modelos/OBAACR4421125/OBAACR4421125_Sell in_metricas.xlsx
+++ b/modelos/OBAACR4421125/OBAACR4421125_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,661 +473,621 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44817</v>
+        <v>44831</v>
       </c>
       <c r="B2" t="n">
-        <v>163.9264017177151</v>
+        <v>190.4744155123439</v>
       </c>
       <c r="C2" t="n">
-        <v>27.60806196877727</v>
+        <v>41.23286771938</v>
       </c>
       <c r="D2" t="n">
-        <v>299.8879840612169</v>
+        <v>338.9500459416352</v>
       </c>
       <c r="E2" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44813</v>
+        <v>44827</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44824</v>
+        <v>44838</v>
       </c>
       <c r="B3" t="n">
-        <v>161.9084285065978</v>
+        <v>212.7653016776996</v>
       </c>
       <c r="C3" t="n">
-        <v>22.40136248015549</v>
+        <v>69.95645116278222</v>
       </c>
       <c r="D3" t="n">
-        <v>292.02602160603</v>
+        <v>353.4521902068477</v>
       </c>
       <c r="E3" t="n">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44820</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44831</v>
+        <v>44845</v>
       </c>
       <c r="B4" t="n">
-        <v>165.0001416623719</v>
+        <v>210.7715212092625</v>
       </c>
       <c r="C4" t="n">
-        <v>27.63370832445359</v>
+        <v>70.07779611964997</v>
       </c>
       <c r="D4" t="n">
-        <v>293.1772795528745</v>
+        <v>347.5466860526748</v>
       </c>
       <c r="E4" t="n">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44827</v>
+        <v>44841</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44838</v>
+        <v>44852</v>
       </c>
       <c r="B5" t="n">
-        <v>182.2527072609886</v>
+        <v>155.388824294329</v>
       </c>
       <c r="C5" t="n">
-        <v>52.7658928512895</v>
+        <v>17.01365792591318</v>
       </c>
       <c r="D5" t="n">
-        <v>313.9739977461884</v>
+        <v>302.4120167221761</v>
       </c>
       <c r="E5" t="n">
-        <v>180</v>
+        <v>60</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44834</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44845</v>
+        <v>44859</v>
       </c>
       <c r="B6" t="n">
-        <v>197.6864636202619</v>
+        <v>85.77906791666027</v>
       </c>
       <c r="C6" t="n">
-        <v>61.38695961357134</v>
+        <v>-67.01661446507629</v>
       </c>
       <c r="D6" t="n">
-        <v>336.6675982503071</v>
+        <v>229.3903825218995</v>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44841</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44852</v>
+        <v>44865</v>
       </c>
       <c r="B7" t="n">
-        <v>164.4632874460187</v>
+        <v>-13.47466805308559</v>
       </c>
       <c r="C7" t="n">
-        <v>38.42291797428272</v>
+        <v>-151.8986762647675</v>
       </c>
       <c r="D7" t="n">
-        <v>299.8119709751202</v>
+        <v>136.3795693300201</v>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44848</v>
+        <v>44862</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44859</v>
+        <v>44869</v>
       </c>
       <c r="B8" t="n">
-        <v>104.8205271886272</v>
+        <v>-14.09546288032476</v>
       </c>
       <c r="C8" t="n">
-        <v>-34.57140896751237</v>
+        <v>-154.09979098821</v>
       </c>
       <c r="D8" t="n">
-        <v>240.0495560340987</v>
+        <v>131.2778122747994</v>
       </c>
       <c r="E8" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44855</v>
+        <v>44862</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44865</v>
+        <v>44887</v>
       </c>
       <c r="B9" t="n">
-        <v>-51.30312561235058</v>
+        <v>240.6247063726779</v>
       </c>
       <c r="C9" t="n">
-        <v>-186.7561415585083</v>
+        <v>97.28515568224701</v>
       </c>
       <c r="D9" t="n">
-        <v>73.73743210247912</v>
+        <v>385.9629477542823</v>
       </c>
       <c r="E9" t="n">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44862</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44869</v>
+        <v>44894</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.013820783372722</v>
+        <v>234.4425790689346</v>
       </c>
       <c r="C10" t="n">
-        <v>-138.4525669899854</v>
+        <v>91.27263599975464</v>
       </c>
       <c r="D10" t="n">
-        <v>126.8850513734947</v>
+        <v>377.000187397754</v>
       </c>
       <c r="E10" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44862</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44887</v>
+        <v>44897</v>
       </c>
       <c r="B11" t="n">
-        <v>246.4364743887808</v>
+        <v>132.1559313000886</v>
       </c>
       <c r="C11" t="n">
-        <v>106.2600523388265</v>
+        <v>-11.28706581047897</v>
       </c>
       <c r="D11" t="n">
-        <v>380.3727130670021</v>
+        <v>275.4188117630124</v>
       </c>
       <c r="E11" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44880</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="B12" t="n">
+        <v>216.1281304584399</v>
+      </c>
+      <c r="C12" t="n">
+        <v>72.66198666630507</v>
+      </c>
+      <c r="D12" t="n">
+        <v>364.2072185650587</v>
+      </c>
+      <c r="E12" t="n">
+        <v>190</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>44894</v>
-      </c>
-      <c r="B12" t="n">
-        <v>252.0133081596553</v>
-      </c>
-      <c r="C12" t="n">
-        <v>118.3585795810863</v>
-      </c>
-      <c r="D12" t="n">
-        <v>390.4374365730417</v>
-      </c>
-      <c r="E12" t="n">
-        <v>100</v>
-      </c>
-      <c r="F12" s="2" t="n">
-        <v>44887</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44897</v>
+        <v>44908</v>
       </c>
       <c r="B13" t="n">
-        <v>147.8377667892813</v>
+        <v>238.4856822657545</v>
       </c>
       <c r="C13" t="n">
-        <v>16.63225667576675</v>
+        <v>100.4955069239544</v>
       </c>
       <c r="D13" t="n">
-        <v>276.0731839356205</v>
+        <v>384.5674580043913</v>
       </c>
       <c r="E13" t="n">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44894</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44901</v>
+        <v>44915</v>
       </c>
       <c r="B14" t="n">
-        <v>228.1701545471224</v>
+        <v>310.7375370040971</v>
       </c>
       <c r="C14" t="n">
-        <v>101.2636550987469</v>
+        <v>170.6536529631322</v>
       </c>
       <c r="D14" t="n">
-        <v>364.7764821204772</v>
+        <v>462.0766016246606</v>
       </c>
       <c r="E14" t="n">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44894</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44908</v>
+        <v>44922</v>
       </c>
       <c r="B15" t="n">
-        <v>242.0250889741732</v>
+        <v>373.450390187535</v>
       </c>
       <c r="C15" t="n">
-        <v>109.6594335156035</v>
+        <v>232.9432792915375</v>
       </c>
       <c r="D15" t="n">
-        <v>384.2953551276374</v>
+        <v>511.6343061556473</v>
       </c>
       <c r="E15" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44901</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44915</v>
+        <v>44929</v>
       </c>
       <c r="B16" t="n">
-        <v>312.1046447907923</v>
+        <v>337.6540167414522</v>
       </c>
       <c r="C16" t="n">
-        <v>172.5026211968865</v>
+        <v>189.285690844686</v>
       </c>
       <c r="D16" t="n">
-        <v>447.3114414939208</v>
+        <v>482.5214558132017</v>
       </c>
       <c r="E16" t="n">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44908</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44922</v>
+        <v>44943</v>
       </c>
       <c r="B17" t="n">
-        <v>390.7665492246715</v>
+        <v>217.9262396965497</v>
       </c>
       <c r="C17" t="n">
-        <v>255.2107354567499</v>
+        <v>77.71324364609507</v>
       </c>
       <c r="D17" t="n">
-        <v>525.9083897784833</v>
+        <v>360.8341846799924</v>
       </c>
       <c r="E17" t="n">
-        <v>150</v>
+        <v>540</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44915</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44929</v>
+        <v>44950</v>
       </c>
       <c r="B18" t="n">
-        <v>365.9873500718624</v>
+        <v>214.1419209050674</v>
       </c>
       <c r="C18" t="n">
-        <v>235.9305580421533</v>
+        <v>70.94889132517586</v>
       </c>
       <c r="D18" t="n">
-        <v>502.207186500599</v>
+        <v>360.2102020331336</v>
       </c>
       <c r="E18" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44922</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44943</v>
+        <v>44981</v>
       </c>
       <c r="B19" t="n">
-        <v>228.2144801819178</v>
+        <v>53.14106609010272</v>
       </c>
       <c r="C19" t="n">
-        <v>94.56728750011318</v>
+        <v>-79.62838104077235</v>
       </c>
       <c r="D19" t="n">
-        <v>363.9474525324931</v>
+        <v>201.7174126409225</v>
       </c>
       <c r="E19" t="n">
-        <v>540</v>
+        <v>240</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44936</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44950</v>
+        <v>44985</v>
       </c>
       <c r="B20" t="n">
-        <v>222.1595222867421</v>
+        <v>172.0488604074565</v>
       </c>
       <c r="C20" t="n">
-        <v>91.43253535142156</v>
+        <v>19.15093371478714</v>
       </c>
       <c r="D20" t="n">
-        <v>355.9713660681346</v>
+        <v>322.5119942800345</v>
       </c>
       <c r="E20" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44943</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44981</v>
+        <v>44988</v>
       </c>
       <c r="B21" t="n">
-        <v>60.1520127660831</v>
+        <v>124.9917586769489</v>
       </c>
       <c r="C21" t="n">
-        <v>-73.60249780825447</v>
+        <v>-15.12206894123171</v>
       </c>
       <c r="D21" t="n">
-        <v>202.9127872346401</v>
+        <v>274.8623384653334</v>
       </c>
       <c r="E21" t="n">
-        <v>240</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44978</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
+        <v>44992</v>
+      </c>
+      <c r="B22" t="n">
+        <v>226.3405377292016</v>
+      </c>
+      <c r="C22" t="n">
+        <v>84.18581299939972</v>
+      </c>
+      <c r="D22" t="n">
+        <v>375.5011472506347</v>
+      </c>
+      <c r="E22" t="n">
+        <v>90</v>
+      </c>
+      <c r="F22" s="2" t="n">
         <v>44985</v>
-      </c>
-      <c r="B22" t="n">
-        <v>163.0914111229839</v>
-      </c>
-      <c r="C22" t="n">
-        <v>28.71442833205394</v>
-      </c>
-      <c r="D22" t="n">
-        <v>293.8563672094284</v>
-      </c>
-      <c r="E22" t="n">
-        <v>60</v>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>44978</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>44988</v>
+        <v>45002</v>
       </c>
       <c r="B23" t="n">
-        <v>107.3525169533877</v>
+        <v>116.1774926929486</v>
       </c>
       <c r="C23" t="n">
-        <v>-26.17284640470554</v>
+        <v>-18.8147377781075</v>
       </c>
       <c r="D23" t="n">
-        <v>242.3896840256951</v>
+        <v>266.4569001118055</v>
       </c>
       <c r="E23" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44985</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>44992</v>
+        <v>45006</v>
       </c>
       <c r="B24" t="n">
-        <v>198.3846594976271</v>
+        <v>172.557957426882</v>
       </c>
       <c r="C24" t="n">
-        <v>58.75628501762949</v>
+        <v>36.14289142768641</v>
       </c>
       <c r="D24" t="n">
-        <v>326.6539503434957</v>
+        <v>322.7053934834373</v>
       </c>
       <c r="E24" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44985</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45002</v>
+        <v>45013</v>
       </c>
       <c r="B25" t="n">
-        <v>103.5797969231748</v>
+        <v>108.4760016397196</v>
       </c>
       <c r="C25" t="n">
-        <v>-27.74850014188236</v>
+        <v>-34.27890218844699</v>
       </c>
       <c r="D25" t="n">
-        <v>245.1713052985306</v>
+        <v>248.2746824661809</v>
       </c>
       <c r="E25" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44999</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45006</v>
+        <v>45020</v>
       </c>
       <c r="B26" t="n">
-        <v>169.1855645968885</v>
+        <v>98.76747227857851</v>
       </c>
       <c r="C26" t="n">
-        <v>33.63673704627499</v>
+        <v>-57.45690504269319</v>
       </c>
       <c r="D26" t="n">
-        <v>310.6253935355209</v>
+        <v>253.3633932833834</v>
       </c>
       <c r="E26" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44999</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
       <c r="B27" t="n">
-        <v>122.0362204557147</v>
+        <v>137.7156539469397</v>
       </c>
       <c r="C27" t="n">
-        <v>-19.549093915249</v>
+        <v>2.338908253052132</v>
       </c>
       <c r="D27" t="n">
-        <v>259.326714340386</v>
+        <v>279.1500730133572</v>
       </c>
       <c r="E27" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45006</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="B28" t="n">
-        <v>114.4690567540428</v>
+        <v>190.0970839926379</v>
       </c>
       <c r="C28" t="n">
-        <v>-21.33361088086149</v>
+        <v>42.73388408708527</v>
       </c>
       <c r="D28" t="n">
-        <v>249.0207535420983</v>
+        <v>330.4056048221848</v>
       </c>
       <c r="E28" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45013</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45027</v>
+        <v>45040</v>
       </c>
       <c r="B29" t="n">
-        <v>150.5792427615227</v>
+        <v>127.7289437559055</v>
       </c>
       <c r="C29" t="n">
-        <v>9.044199787982995</v>
+        <v>-18.95744632057668</v>
       </c>
       <c r="D29" t="n">
-        <v>286.6028287573879</v>
+        <v>256.6928743538772</v>
       </c>
       <c r="E29" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45034</v>
+        <v>45048</v>
       </c>
       <c r="B30" t="n">
-        <v>198.5395291096552</v>
+        <v>169.9152508405138</v>
       </c>
       <c r="C30" t="n">
-        <v>63.77085258531713</v>
+        <v>23.5513264232454</v>
       </c>
       <c r="D30" t="n">
-        <v>332.8485604077533</v>
+        <v>309.3950586985399</v>
       </c>
       <c r="E30" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45027</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45040</v>
+        <v>45055</v>
       </c>
       <c r="B31" t="n">
-        <v>82.9284224503765</v>
+        <v>111.7539640209469</v>
       </c>
       <c r="C31" t="n">
-        <v>-64.72936607170904</v>
+        <v>-37.20370343078547</v>
       </c>
       <c r="D31" t="n">
-        <v>220.666117759808</v>
+        <v>252.3458890046227</v>
       </c>
       <c r="E31" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45034</v>
+        <v>45048</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45048</v>
+        <v>45062</v>
       </c>
       <c r="B32" t="n">
-        <v>184.575817739235</v>
+        <v>83.22314204479723</v>
       </c>
       <c r="C32" t="n">
-        <v>45.52278567823905</v>
+        <v>-56.38197517369912</v>
       </c>
       <c r="D32" t="n">
-        <v>324.4688017100514</v>
+        <v>231.9984122200626</v>
       </c>
       <c r="E32" t="n">
         <v>40</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45055</v>
-      </c>
-      <c r="B33" t="n">
-        <v>128.4871556556992</v>
-      </c>
-      <c r="C33" t="n">
-        <v>-11.72238289777133</v>
-      </c>
-      <c r="D33" t="n">
-        <v>253.2566544512489</v>
-      </c>
-      <c r="E33" t="n">
-        <v>50</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>45048</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45062</v>
-      </c>
-      <c r="B34" t="n">
-        <v>101.1621181766319</v>
-      </c>
-      <c r="C34" t="n">
-        <v>-41.21276720058378</v>
-      </c>
-      <c r="D34" t="n">
-        <v>240.168559283767</v>
-      </c>
-      <c r="E34" t="n">
-        <v>40</v>
-      </c>
-      <c r="F34" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1197,22 +1157,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>11069.03054938952</v>
+        <v>11406.6520249938</v>
       </c>
       <c r="C2" t="n">
-        <v>105.2094603606991</v>
+        <v>106.801928938544</v>
       </c>
       <c r="D2" t="n">
-        <v>95.98423870242225</v>
+        <v>92.7317569265938</v>
       </c>
       <c r="E2" t="n">
-        <v>2.184479679775157</v>
+        <v>2.163660950668162</v>
       </c>
       <c r="F2" t="n">
-        <v>2.45265989743916</v>
+        <v>1.44915560176952</v>
       </c>
       <c r="G2" t="n">
-        <v>1.231645096695138</v>
+        <v>1.256343018786638</v>
       </c>
       <c r="H2" t="n">
         <v>0.7999999999999999</v>
@@ -1223,22 +1183,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>5415.277266694789</v>
+        <v>9359.267286341978</v>
       </c>
       <c r="C3" t="n">
-        <v>73.58856749995061</v>
+        <v>96.7433061578008</v>
       </c>
       <c r="D3" t="n">
-        <v>58.93772851284236</v>
+        <v>90.72419895539493</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6402465395751086</v>
+        <v>0.9418354926206112</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4758973640568639</v>
+        <v>0.7315855955667623</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4386190747231157</v>
+        <v>0.6574148238783156</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1249,22 +1209,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>3785.422363150834</v>
+        <v>7768.581464991519</v>
       </c>
       <c r="C4" t="n">
-        <v>61.5257861644273</v>
+        <v>88.13955675513418</v>
       </c>
       <c r="D4" t="n">
-        <v>46.93462649202039</v>
+        <v>83.05911388889842</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5542111511077198</v>
+        <v>1.004162238168771</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3821403741729417</v>
+        <v>0.5711046604166987</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3993586598071334</v>
+        <v>0.6787968881367319</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1275,25 +1235,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>16266.19621254981</v>
+        <v>15382.85408807049</v>
       </c>
       <c r="C5" t="n">
-        <v>127.5389987907613</v>
+        <v>124.0276343726288</v>
       </c>
       <c r="D5" t="n">
-        <v>105.4327082170885</v>
+        <v>99.72231343526369</v>
       </c>
       <c r="E5" t="n">
-        <v>2.177473307173251</v>
+        <v>2.04696551911298</v>
       </c>
       <c r="F5" t="n">
-        <v>1.362203538007316</v>
+        <v>1.289752535554141</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8184089583147353</v>
+        <v>0.7860885613728996</v>
       </c>
       <c r="H5" t="n">
-        <v>0.75</v>
+        <v>0.8500000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAACR4421125/OBAACR4421125_Sell in_metricas.xlsx
+++ b/modelos/OBAACR4421125/OBAACR4421125_Sell in_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,621 +473,661 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44831</v>
+        <v>44817</v>
       </c>
       <c r="B2" t="n">
-        <v>190.4744155123439</v>
+        <v>163.9263069121058</v>
       </c>
       <c r="C2" t="n">
-        <v>41.23286771938</v>
+        <v>22.81020152705382</v>
       </c>
       <c r="D2" t="n">
-        <v>338.9500459416352</v>
+        <v>299.06443894545</v>
       </c>
       <c r="E2" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44827</v>
+        <v>44813</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44838</v>
+        <v>44824</v>
       </c>
       <c r="B3" t="n">
-        <v>212.7653016776996</v>
+        <v>162.4338554768975</v>
       </c>
       <c r="C3" t="n">
-        <v>69.95645116278222</v>
+        <v>32.13468973163182</v>
       </c>
       <c r="D3" t="n">
-        <v>353.4521902068477</v>
+        <v>295.2568552837108</v>
       </c>
       <c r="E3" t="n">
-        <v>180</v>
+        <v>130</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44834</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44845</v>
+        <v>44831</v>
       </c>
       <c r="B4" t="n">
-        <v>210.7715212092625</v>
+        <v>165.0111530645829</v>
       </c>
       <c r="C4" t="n">
-        <v>70.07779611964997</v>
+        <v>28.85848641929987</v>
       </c>
       <c r="D4" t="n">
-        <v>347.5466860526748</v>
+        <v>295.8203205073298</v>
       </c>
       <c r="E4" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44841</v>
+        <v>44827</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44852</v>
+        <v>44838</v>
       </c>
       <c r="B5" t="n">
-        <v>155.388824294329</v>
+        <v>182.2548050827247</v>
       </c>
       <c r="C5" t="n">
-        <v>17.01365792591318</v>
+        <v>50.11296180891974</v>
       </c>
       <c r="D5" t="n">
-        <v>302.4120167221761</v>
+        <v>314.6934213348123</v>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>180</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44848</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44859</v>
+        <v>44845</v>
       </c>
       <c r="B6" t="n">
-        <v>85.77906791666027</v>
+        <v>197.6864639781882</v>
       </c>
       <c r="C6" t="n">
-        <v>-67.01661446507629</v>
+        <v>64.35633849371648</v>
       </c>
       <c r="D6" t="n">
-        <v>229.3903825218995</v>
+        <v>325.6705052574555</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44855</v>
+        <v>44841</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44865</v>
+        <v>44852</v>
       </c>
       <c r="B7" t="n">
-        <v>-13.47466805308559</v>
+        <v>164.9332357678132</v>
       </c>
       <c r="C7" t="n">
-        <v>-151.8986762647675</v>
+        <v>34.61554320182185</v>
       </c>
       <c r="D7" t="n">
-        <v>136.3795693300201</v>
+        <v>302.9344555047612</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44862</v>
+        <v>44848</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44869</v>
+        <v>44859</v>
       </c>
       <c r="B8" t="n">
-        <v>-14.09546288032476</v>
+        <v>104.8194546703415</v>
       </c>
       <c r="C8" t="n">
-        <v>-154.09979098821</v>
+        <v>-35.32608676638996</v>
       </c>
       <c r="D8" t="n">
-        <v>131.2778122747994</v>
+        <v>231.2933706343389</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44862</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44887</v>
+        <v>44865</v>
       </c>
       <c r="B9" t="n">
-        <v>240.6247063726779</v>
+        <v>-51.30328200963126</v>
       </c>
       <c r="C9" t="n">
-        <v>97.28515568224701</v>
+        <v>-187.2355325630308</v>
       </c>
       <c r="D9" t="n">
-        <v>385.9629477542823</v>
+        <v>85.65903006865288</v>
       </c>
       <c r="E9" t="n">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44880</v>
+        <v>44862</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44894</v>
+        <v>44869</v>
       </c>
       <c r="B10" t="n">
-        <v>234.4425790689346</v>
+        <v>-1.013932972610249</v>
       </c>
       <c r="C10" t="n">
-        <v>91.27263599975464</v>
+        <v>-125.8680084259666</v>
       </c>
       <c r="D10" t="n">
-        <v>377.000187397754</v>
+        <v>141.8551922884771</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44887</v>
+        <v>44862</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44897</v>
+        <v>44887</v>
       </c>
       <c r="B11" t="n">
-        <v>132.1559313000886</v>
+        <v>246.441045940213</v>
       </c>
       <c r="C11" t="n">
-        <v>-11.28706581047897</v>
+        <v>113.2084390871598</v>
       </c>
       <c r="D11" t="n">
-        <v>275.4188117630124</v>
+        <v>381.7380173029132</v>
       </c>
       <c r="E11" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44894</v>
+        <v>44880</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
       <c r="B12" t="n">
-        <v>216.1281304584399</v>
+        <v>250.5639927318102</v>
       </c>
       <c r="C12" t="n">
-        <v>72.66198666630507</v>
+        <v>112.935986567585</v>
       </c>
       <c r="D12" t="n">
-        <v>364.2072185650587</v>
+        <v>371.6845677562779</v>
       </c>
       <c r="E12" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44894</v>
+        <v>44887</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44908</v>
+        <v>44897</v>
       </c>
       <c r="B13" t="n">
-        <v>238.4856822657545</v>
+        <v>153.9464250370361</v>
       </c>
       <c r="C13" t="n">
-        <v>100.4955069239544</v>
+        <v>14.41088647547463</v>
       </c>
       <c r="D13" t="n">
-        <v>384.5674580043913</v>
+        <v>290.3147086297093</v>
       </c>
       <c r="E13" t="n">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44901</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44915</v>
+        <v>44901</v>
       </c>
       <c r="B14" t="n">
-        <v>310.7375370040971</v>
+        <v>231.3768299868461</v>
       </c>
       <c r="C14" t="n">
-        <v>170.6536529631322</v>
+        <v>102.1597669889501</v>
       </c>
       <c r="D14" t="n">
-        <v>462.0766016246606</v>
+        <v>368.7464034867946</v>
       </c>
       <c r="E14" t="n">
-        <v>310</v>
+        <v>190</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44908</v>
+        <v>44894</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
       <c r="B15" t="n">
-        <v>373.450390187535</v>
+        <v>240.74919894381</v>
       </c>
       <c r="C15" t="n">
-        <v>232.9432792915375</v>
+        <v>105.3339949891639</v>
       </c>
       <c r="D15" t="n">
-        <v>511.6343061556473</v>
+        <v>370.3115025343659</v>
       </c>
       <c r="E15" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44915</v>
+        <v>44901</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>44929</v>
+        <v>44915</v>
       </c>
       <c r="B16" t="n">
-        <v>337.6540167414522</v>
+        <v>311.6254022347262</v>
       </c>
       <c r="C16" t="n">
-        <v>189.285690844686</v>
+        <v>174.6007316248858</v>
       </c>
       <c r="D16" t="n">
-        <v>482.5214558132017</v>
+        <v>441.643790000262</v>
       </c>
       <c r="E16" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44922</v>
+        <v>44908</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44943</v>
+        <v>44922</v>
       </c>
       <c r="B17" t="n">
-        <v>217.9262396965497</v>
+        <v>383.6049834410748</v>
       </c>
       <c r="C17" t="n">
-        <v>77.71324364609507</v>
+        <v>254.4264519691469</v>
       </c>
       <c r="D17" t="n">
-        <v>360.8341846799924</v>
+        <v>514.6503933403902</v>
       </c>
       <c r="E17" t="n">
-        <v>540</v>
+        <v>150</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44936</v>
+        <v>44915</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>44950</v>
+        <v>44929</v>
       </c>
       <c r="B18" t="n">
-        <v>214.1419209050674</v>
+        <v>365.9873932985755</v>
       </c>
       <c r="C18" t="n">
-        <v>70.94889132517586</v>
+        <v>227.0849503394086</v>
       </c>
       <c r="D18" t="n">
-        <v>360.2102020331336</v>
+        <v>499.614579680868</v>
       </c>
       <c r="E18" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44943</v>
+        <v>44922</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>44981</v>
+        <v>44943</v>
       </c>
       <c r="B19" t="n">
-        <v>53.14106609010272</v>
+        <v>228.157532539927</v>
       </c>
       <c r="C19" t="n">
-        <v>-79.62838104077235</v>
+        <v>98.18813975505705</v>
       </c>
       <c r="D19" t="n">
-        <v>201.7174126409225</v>
+        <v>360.4193296676378</v>
       </c>
       <c r="E19" t="n">
-        <v>240</v>
+        <v>540</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44978</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>44985</v>
+        <v>44950</v>
       </c>
       <c r="B20" t="n">
-        <v>172.0488604074565</v>
+        <v>223.1841596333967</v>
       </c>
       <c r="C20" t="n">
-        <v>19.15093371478714</v>
+        <v>79.84747956900807</v>
       </c>
       <c r="D20" t="n">
-        <v>322.5119942800345</v>
+        <v>354.4738070516543</v>
       </c>
       <c r="E20" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44978</v>
+        <v>44943</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>44988</v>
+        <v>44981</v>
       </c>
       <c r="B21" t="n">
-        <v>124.9917586769489</v>
+        <v>60.16355221888796</v>
       </c>
       <c r="C21" t="n">
-        <v>-15.12206894123171</v>
+        <v>-77.51776048245718</v>
       </c>
       <c r="D21" t="n">
-        <v>274.8623384653334</v>
+        <v>189.173714334756</v>
       </c>
       <c r="E21" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>44992</v>
+        <v>44985</v>
       </c>
       <c r="B22" t="n">
-        <v>226.3405377292016</v>
+        <v>162.0412907994361</v>
       </c>
       <c r="C22" t="n">
-        <v>84.18581299939972</v>
+        <v>19.98958259012296</v>
       </c>
       <c r="D22" t="n">
-        <v>375.5011472506347</v>
+        <v>307.5566550570433</v>
       </c>
       <c r="E22" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44985</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45002</v>
+        <v>44988</v>
       </c>
       <c r="B23" t="n">
-        <v>116.1774926929486</v>
+        <v>107.3525169531688</v>
       </c>
       <c r="C23" t="n">
-        <v>-18.8147377781075</v>
+        <v>-38.76068229701698</v>
       </c>
       <c r="D23" t="n">
-        <v>266.4569001118055</v>
+        <v>232.591237889706</v>
       </c>
       <c r="E23" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44999</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45006</v>
+        <v>44992</v>
       </c>
       <c r="B24" t="n">
-        <v>172.557957426882</v>
+        <v>198.3846594974073</v>
       </c>
       <c r="C24" t="n">
-        <v>36.14289142768641</v>
+        <v>54.25761312755274</v>
       </c>
       <c r="D24" t="n">
-        <v>322.7053934834373</v>
+        <v>325.7646661685675</v>
       </c>
       <c r="E24" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44999</v>
+        <v>44985</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45013</v>
+        <v>45002</v>
       </c>
       <c r="B25" t="n">
-        <v>108.4760016397196</v>
+        <v>103.5797954822123</v>
       </c>
       <c r="C25" t="n">
-        <v>-34.27890218844699</v>
+        <v>-26.38444040198364</v>
       </c>
       <c r="D25" t="n">
-        <v>248.2746824661809</v>
+        <v>245.2994009970368</v>
       </c>
       <c r="E25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45006</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45020</v>
+        <v>45006</v>
       </c>
       <c r="B26" t="n">
-        <v>98.76747227857851</v>
+        <v>169.1855825942957</v>
       </c>
       <c r="C26" t="n">
-        <v>-57.45690504269319</v>
+        <v>34.68136532230164</v>
       </c>
       <c r="D26" t="n">
-        <v>253.3633932833834</v>
+        <v>313.7130331071438</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45013</v>
+        <v>44999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45027</v>
+        <v>45013</v>
       </c>
       <c r="B27" t="n">
-        <v>137.7156539469397</v>
+        <v>121.27509446339</v>
       </c>
       <c r="C27" t="n">
-        <v>2.338908253052132</v>
+        <v>-13.98055500482104</v>
       </c>
       <c r="D27" t="n">
-        <v>279.1500730133572</v>
+        <v>249.5403786839356</v>
       </c>
       <c r="E27" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45020</v>
+        <v>45006</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45034</v>
+        <v>45020</v>
       </c>
       <c r="B28" t="n">
-        <v>190.0970839926379</v>
+        <v>116.1328402267827</v>
       </c>
       <c r="C28" t="n">
-        <v>42.73388408708527</v>
+        <v>-8.673557603959141</v>
       </c>
       <c r="D28" t="n">
-        <v>330.4056048221848</v>
+        <v>260.484791381476</v>
       </c>
       <c r="E28" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45027</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45040</v>
+        <v>45027</v>
       </c>
       <c r="B29" t="n">
-        <v>127.7289437559055</v>
+        <v>150.2641793791295</v>
       </c>
       <c r="C29" t="n">
-        <v>-18.95744632057668</v>
+        <v>22.10147345814216</v>
       </c>
       <c r="D29" t="n">
-        <v>256.6928743538772</v>
+        <v>286.052033885614</v>
       </c>
       <c r="E29" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45034</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45048</v>
+        <v>45034</v>
       </c>
       <c r="B30" t="n">
-        <v>169.9152508405138</v>
+        <v>198.5782610866709</v>
       </c>
       <c r="C30" t="n">
-        <v>23.5513264232454</v>
+        <v>71.917781255572</v>
       </c>
       <c r="D30" t="n">
-        <v>309.3950586985399</v>
+        <v>338.0971703087673</v>
       </c>
       <c r="E30" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45041</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45055</v>
+        <v>45040</v>
       </c>
       <c r="B31" t="n">
-        <v>111.7539640209469</v>
+        <v>84.26028937083349</v>
       </c>
       <c r="C31" t="n">
-        <v>-37.20370343078547</v>
+        <v>-52.25498150624238</v>
       </c>
       <c r="D31" t="n">
-        <v>252.3458890046227</v>
+        <v>222.8853536134189</v>
       </c>
       <c r="E31" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45048</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45062</v>
+        <v>45048</v>
       </c>
       <c r="B32" t="n">
-        <v>83.22314204479723</v>
+        <v>184.5758058185845</v>
       </c>
       <c r="C32" t="n">
-        <v>-56.38197517369912</v>
+        <v>51.20995187928444</v>
       </c>
       <c r="D32" t="n">
-        <v>231.9984122200626</v>
+        <v>317.1360049723876</v>
       </c>
       <c r="E32" t="n">
         <v>40</v>
       </c>
       <c r="F32" s="2" t="n">
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B33" t="n">
+        <v>127.5327555579226</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-8.094280857199468</v>
+      </c>
+      <c r="D33" t="n">
+        <v>266.035251606993</v>
+      </c>
+      <c r="E33" t="n">
+        <v>50</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45062</v>
+      </c>
+      <c r="B34" t="n">
+        <v>101.1859013274383</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-34.87300813249162</v>
+      </c>
+      <c r="D34" t="n">
+        <v>233.158366153189</v>
+      </c>
+      <c r="E34" t="n">
+        <v>40</v>
+      </c>
+      <c r="F34" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -1157,22 +1197,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>11406.6520249938</v>
+        <v>11216.99308246827</v>
       </c>
       <c r="C2" t="n">
-        <v>106.801928938544</v>
+        <v>105.9103067811074</v>
       </c>
       <c r="D2" t="n">
-        <v>92.7317569265938</v>
+        <v>97.20369345263209</v>
       </c>
       <c r="E2" t="n">
-        <v>2.163660950668162</v>
+        <v>2.19804589271054</v>
       </c>
       <c r="F2" t="n">
-        <v>1.44915560176952</v>
+        <v>2.452659849407075</v>
       </c>
       <c r="G2" t="n">
-        <v>1.256343018786638</v>
+        <v>1.239201093843493</v>
       </c>
       <c r="H2" t="n">
         <v>0.7999999999999999</v>
@@ -1183,22 +1223,22 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>9359.267286341978</v>
+        <v>5434.36854541747</v>
       </c>
       <c r="C3" t="n">
-        <v>96.7433061578008</v>
+        <v>73.7181697101703</v>
       </c>
       <c r="D3" t="n">
-        <v>90.72419895539493</v>
+        <v>59.08196454110846</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9418354926206112</v>
+        <v>0.6419596682783255</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7315855955667623</v>
+        <v>0.4759027266482926</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6574148238783156</v>
+        <v>0.4394076396811451</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1209,22 +1249,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>7768.581464991519</v>
+        <v>3819.09957706384</v>
       </c>
       <c r="C4" t="n">
-        <v>88.13955675513418</v>
+        <v>61.79886388165919</v>
       </c>
       <c r="D4" t="n">
-        <v>83.05911388889842</v>
+        <v>47.47473948435013</v>
       </c>
       <c r="E4" t="n">
-        <v>1.004162238168771</v>
+        <v>0.5627524975790698</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5711046604166987</v>
+        <v>0.4043381561805582</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6787968881367319</v>
+        <v>0.4050519284979397</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1235,25 +1275,25 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>15382.85408807049</v>
+        <v>16064.09367327134</v>
       </c>
       <c r="C5" t="n">
-        <v>124.0276343726288</v>
+        <v>126.7442056792788</v>
       </c>
       <c r="D5" t="n">
-        <v>99.72231343526369</v>
+        <v>104.95887290637</v>
       </c>
       <c r="E5" t="n">
-        <v>2.04696551911298</v>
+        <v>2.174663517400447</v>
       </c>
       <c r="F5" t="n">
-        <v>1.289752535554141</v>
+        <v>1.354956960866869</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7860885613728996</v>
+        <v>0.8171691857391193</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8500000000000002</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
